--- a/similarities/split_global/harmonic_similarity_timestamps_296.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_296.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
+          <t>('0:02:22.379117', '0:02:27.510727')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
+          <t>('0:02:37.160000', '0:02:40.380000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=88.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=142.379117</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=96.74']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=157.16</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:55.760000')]</t>
+          <t>('0:00:10.560000', '0:00:17.340000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:26.200000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.080000', '0:01:11.120000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=63.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:19.440000', '0:00:28.300000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:12.921927', '0:00:21.908049')]</t>
+          <t>('0:00:30.020000', '0:00:44.280000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
+          <t>('0:01:06.100000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=46.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:04.540000', '0:00:13.980000')]</t>
+          <t>('0:00:00.600000', '0:00:11.320000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:30.390000', '0:00:34.950000')]</t>
+          <t>('0:00:16.040000', '0:00:24.060000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=4.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=30.39']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/F', 'F:min'], ['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:12.600000', '0:00:17.860000'), ('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:00:00.860000', '0:00:05.140000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.840000', '0:00:12.720000'), ('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.700000', '0:00:07.380000')]</t>
+          <t>('0:00:16.340000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:10.440000', '0:00:29.100000')]</t>
+          <t>('0:01:15.560000', '0:01:35.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=0.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=10.44']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>['G', 'C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02.340000')]</t>
+          <t>('0:02:03.030000', '0:02:09.590000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:17.058000')]</t>
+          <t>('0:00:06.774988', '0:00:12.870226')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=121.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=6.774988</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:03.120000', '0:01:09.420000')]</t>
+          <t>('0:00:01.014823', '0:00:06.126439')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=30.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=63.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=1.014823</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D:7', 'G:min', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:04.280000', '0:01:14.480000')]</t>
+          <t>('0:01:00.854263', '0:01:06.566371')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
+          <t>('0:00:23.400000', '0:00:31.320000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=64.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=60.854263</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=57.5']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D'], ['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb', 'Bb'], ['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['B/5', 'B:min/5', 'F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:59.400000', '0:01:09.760000'), ('0:01:14.700000', '0:01:27.040000')]</t>
+          <t>('0:00:47.780000', '0:00:53.940000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:31.370000', '0:00:43.560000'), ('0:00:48.250000', '0:00:59.490000')]</t>
+          <t>('0:00:01.829138', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=59.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=47.78</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=31.37', 'https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=48.25']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=1.829138</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D/5', 'A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:12.743000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:00:22.107142', '0:00:28.074671')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=22.107142</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>['G:min/A#', 'F:maj/C', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['A:min', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:59.540000', '0:01:09.800000')]</t>
+          <t>('0:01:33.320000', '0:01:38.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:23.502731', '0:01:34.167952')]</t>
+          <t>('0:00:17.573877', '0:00:21.207800')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=59.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=93.32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=83.502731']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=17.573877</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
